--- a/SEP/Artifact & Deliverable/Requirement/SRM_Functional Requirement List_ver0.1.xlsx
+++ b/SEP/Artifact & Deliverable/Requirement/SRM_Functional Requirement List_ver0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="9315" windowHeight="7395"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="9315" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reversion History" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>FR04</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>Hệ thống cho  phép người dùng có thể đăng nhập</t>
+  </si>
+  <si>
+    <t>Hệ thống cho phép Quản lý khoa có khả năng tìm kiếm user account cho nhân viên tiếp nhận hồ sơ của khoa họ</t>
+  </si>
+  <si>
+    <t>Hệ thống cho phép Administrator tìm kiếm user account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống cho phép nhân viên tiếp nhận hồ sơ có thể tìm kiến tên hồ sơ sinh viên của khoa họ </t>
+  </si>
+  <si>
+    <t>Hệ thống cho phép Quản lý khoa được quyền tìm kiếm tên hồ sơ sinh viên của khoa mình</t>
+  </si>
+  <si>
+    <t>FR21</t>
+  </si>
+  <si>
+    <t>FR22</t>
+  </si>
+  <si>
+    <t>FR23</t>
+  </si>
+  <si>
+    <t>FR24</t>
   </si>
 </sst>
 </file>
@@ -499,10 +523,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,36 +533,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -859,149 +883,149 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>41097</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>0.1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1022,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1094,10 +1118,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1105,32 +1129,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,43 +1162,43 @@
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1182,10 +1206,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1193,10 +1217,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1204,78 +1228,110 @@
         <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="11" t="s">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -1339,6 +1395,18 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEP/Artifact & Deliverable/Requirement/SRM_Functional Requirement List_ver0.1.xlsx
+++ b/SEP/Artifact & Deliverable/Requirement/SRM_Functional Requirement List_ver0.1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>FR04</t>
   </si>
@@ -188,9 +188,6 @@
     <t xml:space="preserve">Hệ thống cho phép nhân viên tiếp nhận hồ sơ có thể tìm kiến tên hồ sơ sinh viên của khoa họ </t>
   </si>
   <si>
-    <t>Hệ thống cho phép Quản lý khoa được quyền tìm kiếm tên hồ sơ sinh viên của khoa mình</t>
-  </si>
-  <si>
     <t>FR21</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
   </si>
   <si>
     <t>FR23</t>
-  </si>
-  <si>
-    <t>FR24</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,21 +1134,21 @@
         <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>42</v>
@@ -1173,7 +1167,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>42</v>
@@ -1184,21 +1178,21 @@
         <v>24</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1206,7 +1200,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>46</v>
@@ -1217,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>46</v>
@@ -1228,10 +1222,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1239,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>47</v>
@@ -1250,21 +1244,21 @@
         <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>48</v>
@@ -1283,55 +1277,47 @@
         <v>33</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>47</v>
-      </c>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -1404,9 +1390,6 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEP/Artifact & Deliverable/Requirement/SRM_Functional Requirement List_ver0.1.xlsx
+++ b/SEP/Artifact & Deliverable/Requirement/SRM_Functional Requirement List_ver0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="450" windowWidth="9315" windowHeight="7395" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Reversion History" sheetId="4" r:id="rId1"/>
     <sheet name="Functional Requirement List" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -201,7 +201,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,20 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -475,6 +465,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,9 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -497,70 +544,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,160 +856,160 @@
   <dimension ref="A3:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <v>41097</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="6">
         <v>0.1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1035,6 +1025,7 @@
     <mergeCell ref="E8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1042,277 +1033,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="92.5703125" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="34" t="s">
         <v>47</v>
       </c>
     </row>
